--- a/Practica_2/Control_G2.xlsx
+++ b/Practica_2/Control_G2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EUEP2\Git\EUE\Practica_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB766C2-A6C8-468D-8DC3-F35AC0ECD51E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD6E693-28B6-44B2-B01E-EDA51511E9FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26580" yWindow="1200" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5C4F7E80-8C79-4120-8B9D-E7CA74F5DB21}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>2D_Shell</t>
   </si>
@@ -89,6 +89,27 @@
   </si>
   <si>
     <t>BC</t>
+  </si>
+  <si>
+    <t>Node 1000:1804</t>
+  </si>
+  <si>
+    <t>Elm 1000:1323 2000:2095 3000:3775</t>
+  </si>
+  <si>
+    <t>Punto 100</t>
+  </si>
+  <si>
+    <t>Nodo 1</t>
+  </si>
+  <si>
+    <t>Element 1</t>
+  </si>
+  <si>
+    <t>Node 1012 1021 1035:1059:12 1102 1115 1140 1153 1173 1186 1211 1224 1244 1257 1278 1285:1364</t>
+  </si>
+  <si>
+    <t>ID 2</t>
   </si>
 </sst>
 </file>
@@ -493,10 +514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCC06D5-CCC6-4595-B7F5-E1A22E0C3CC9}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,25 +584,46 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
